--- a/chatbot_data.xlsx
+++ b/chatbot_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coolw\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5126B788-2650-4D5D-A0BA-822F18D2104F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A04932B-8F74-42CB-AC2A-2792683B6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30817" yWindow="23" windowWidth="30915" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>너의 이름은?</t>
   </si>
   <si>
-    <t>저는 자비스라고 합니다</t>
-  </si>
-  <si>
     <t>네 이름을 말해줘</t>
   </si>
   <si>
@@ -42,21 +39,6 @@
     <t>놀러가고 싶다</t>
   </si>
   <si>
-    <t>가끔씩 휴식하는 것도 좋죠</t>
-  </si>
-  <si>
-    <t>느그 아부지 뭐하시노</t>
-  </si>
-  <si>
-    <t>우리 아부지 건달입니다</t>
-  </si>
-  <si>
-    <t>말귀좀 알아듣는다?</t>
-  </si>
-  <si>
-    <t>다행이네요. 열심히 배우고 있어요</t>
-  </si>
-  <si>
     <t>맛저해</t>
   </si>
   <si>
@@ -90,27 +72,15 @@
     <t>뭐해?</t>
   </si>
   <si>
-    <t>그냥 있어요</t>
-  </si>
-  <si>
     <t>아 월요일이 다가온다</t>
   </si>
   <si>
-    <t>월요병이 심한가봐요</t>
-  </si>
-  <si>
     <t>안녕</t>
   </si>
   <si>
-    <t>안녕하세요</t>
-  </si>
-  <si>
     <t>영화 추천해줘</t>
   </si>
   <si>
-    <t>아이언맨 시리즈와 어벤져스 시리즈를 보세요</t>
-  </si>
-  <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>느그|아부지|뭐하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말귀|알아듣는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맛저해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +142,238 @@
   </si>
   <si>
     <t>영화|추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 장림이라고 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 워터밤이 인기가 좋데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 노래 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아|노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑건에 나온 "I Ain't Worried"를 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 아이돌이 누구야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아|아이돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want a next~level~ 에스파를 좋아합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 이름이 왜 장림이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너|이름|왜|장림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를 만든 사람들의 성씨를 따서 지었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 연예인 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아|연예인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버츄얼 휴먼인 로지씨가 제 롤모델입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는 음식이 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아|음식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 음식을 먹지 못합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에 대해 알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너|알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 rule-based 기반의 챗봇인 장림이라고 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명탐정 코난:할로윈의 신부와 탑건:메버릭을 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요병이 심하신가봐요 ㅎㅎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 있습니다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이가 어떻게 되니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇살이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제 태어났어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이|어떻게|되니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아서 뭐하시게요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇살|이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제|태어났어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 7월 20일에 태어났습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 비대면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비대면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 대면이야~ 돌아가~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 가기 싫다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교|싫다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 학교를 가야지, 라때는 말이야~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고프다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배|고프다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달앱을 켜시오~ 오늘 저녁은 치킨이닭!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배|고파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 무슨 요일이 좋아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너|무슨|요일|좋아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불타는 금요일이 최고죠~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 애니 뭐가 재밌어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 드라마 뭐가 재밌어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스|애니|재밌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스|드라마|재밌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 영화 뭐가 재밌어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스|영화|재밌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 spy family를 추천합니다. 아냐 귀여워~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 변호사 우영우를 추천합니다. 우 to the 영 to the 우!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명작 기생충은 어떠신가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 지금 뭘 해야할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가|지금|뭘|해야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anything, 무엇이라도 해야합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -525,13 +719,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -539,164 +733,340 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
